--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -563,6 +563,9 @@
 </t>
   </si>
   <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Sex Parameters for Clinical Use Extension</t>
+  </si>
+  <si>
     <t>A parameter that provides guidance on how a recipient should apply settings or reference ranges that are derived from observable information such as an organ inventory, recent hormone lab tests, genetic testing, menstrual status, obstetric history, etc..</t>
   </si>
   <si>
@@ -583,6 +586,41 @@
   </si>
   <si>
     <t>This represents an individual's identity, ascertained by asking them what that identity is.</t>
+  </si>
+  <si>
+    <t>Patient.extension:personalPronouns</t>
+  </si>
+  <si>
+    <t>personalPronouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-pronouns}
+</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Individual's Pronouns Extension</t>
+  </si>
+  <si>
+    <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
+  </si>
+  <si>
+    <t>Patient.extension:interpreterRequired</t>
+  </si>
+  <si>
+    <t>interpreterRequired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-interpreterRequired}
+</t>
+  </si>
+  <si>
+    <t>Whether the patient needs an interpreter</t>
+  </si>
+  <si>
+    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
+  </si>
+  <si>
+    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2325,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2336,7 +2374,7 @@
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.24609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4049,10 +4087,10 @@
         <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4135,13 +4173,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -4163,16 +4201,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4254,14 +4292,16 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4274,26 +4314,22 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
         <v>184</v>
       </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4341,7 +4377,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4356,7 +4392,7 @@
         <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -4373,30 +4409,32 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>187</v>
@@ -4407,10 +4445,10 @@
       <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
       </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4458,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4470,19 +4508,19 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4490,42 +4528,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4573,22 +4615,22 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4605,44 +4647,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4678,19 +4720,19 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4702,19 +4744,19 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4722,10 +4764,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4742,26 +4784,22 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O21" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4785,31 +4823,31 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4821,10 +4859,10 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4833,7 +4871,7 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4841,21 +4879,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4864,23 +4902,21 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4904,46 +4940,46 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4952,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4960,10 +4996,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4971,34 +5007,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -5011,7 +5047,7 @@
         <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>79</v>
@@ -5023,13 +5059,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -5047,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -5062,7 +5098,7 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -5071,7 +5107,7 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -5079,10 +5115,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5090,13 +5126,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
@@ -5105,18 +5141,20 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5128,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>79</v>
@@ -5140,13 +5178,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -5164,7 +5202,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5217,7 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -5188,7 +5226,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5196,10 +5234,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5207,13 +5245,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -5222,16 +5260,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5243,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>79</v>
@@ -5279,7 +5321,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5294,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -5303,7 +5345,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5311,10 +5353,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5322,13 +5364,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
@@ -5337,16 +5379,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5360,7 +5402,7 @@
         <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>79</v>
@@ -5396,7 +5438,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5411,7 +5453,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -5420,7 +5462,7 @@
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5428,10 +5470,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5448,76 +5490,70 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5532,16 +5568,16 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5549,10 +5585,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5560,13 +5596,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
@@ -5575,20 +5611,18 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5642,25 +5676,25 @@
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5668,10 +5702,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5688,26 +5722,32 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5751,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5763,16 +5803,16 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5783,44 +5823,46 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5856,19 +5898,19 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5880,19 +5922,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5900,10 +5942,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5920,26 +5962,22 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5963,31 +6001,31 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5999,10 +6037,10 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -6011,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6019,21 +6057,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6042,23 +6080,21 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -6094,34 +6130,34 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -6130,7 +6166,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6138,14 +6174,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6155,27 +6191,29 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6199,13 +6237,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -6223,7 +6261,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6232,13 +6270,13 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -6247,7 +6285,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6255,24 +6293,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -6281,18 +6319,20 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6340,22 +6380,22 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -6364,7 +6404,7 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6372,24 +6412,24 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -6398,15 +6438,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6455,22 +6497,22 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -6479,7 +6521,7 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6487,14 +6529,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6504,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6513,15 +6555,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6579,7 +6623,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
@@ -6616,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6628,7 +6672,7 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>328</v>
@@ -6637,9 +6681,7 @@
         <v>329</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6687,13 +6729,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6702,16 +6744,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6719,10 +6761,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6745,20 +6787,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6806,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6821,16 +6859,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6838,10 +6876,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6861,19 +6899,21 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6921,7 +6961,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6933,10 +6973,10 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6945,7 +6985,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6953,14 +6993,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6976,21 +7016,23 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -7026,19 +7068,19 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>205</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7050,19 +7092,19 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7070,10 +7112,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7081,28 +7123,28 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7129,31 +7171,31 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7162,13 +7204,13 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -7177,7 +7219,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7185,46 +7227,44 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>214</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>215</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7260,34 +7300,34 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -7296,7 +7336,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7304,10 +7344,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7315,7 +7355,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
@@ -7324,7 +7364,7 @@
         <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
@@ -7333,17 +7373,13 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7367,11 +7403,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7389,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7398,13 +7436,13 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -7413,7 +7451,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7421,10 +7459,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7432,13 +7470,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -7447,18 +7485,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7506,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7521,7 +7561,7 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>200</v>
+        <v>372</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7530,7 +7570,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7538,10 +7578,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7555,25 +7595,29 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7597,13 +7641,11 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7621,7 +7663,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7636,7 +7678,7 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -7645,7 +7687,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7653,10 +7695,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7664,13 +7706,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
@@ -7679,20 +7721,18 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7716,11 +7756,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7738,7 +7780,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7753,16 +7795,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>212</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7787,7 +7829,7 @@
         <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
@@ -7796,20 +7838,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7857,7 +7895,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7872,27 +7910,27 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7900,34 +7938,34 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7952,13 +7990,11 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7976,7 +8012,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7991,16 +8027,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>163</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8008,10 +8044,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8022,7 +8058,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>88</v>
@@ -8034,19 +8070,19 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8095,13 +8131,13 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
@@ -8110,27 +8146,27 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8147,22 +8183,26 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>196</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8210,7 +8250,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8222,19 +8262,19 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8242,14 +8282,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8259,27 +8299,29 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>202</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8315,19 +8357,19 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>205</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8339,19 +8381,19 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8359,10 +8401,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8379,26 +8421,22 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8410,7 +8448,7 @@
         <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>79</v>
@@ -8422,31 +8460,31 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8458,10 +8496,10 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -8470,7 +8508,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8478,21 +8516,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8501,19 +8539,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>429</v>
+        <v>215</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>430</v>
+        <v>195</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8527,7 +8565,7 @@
         <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>79</v>
@@ -8539,46 +8577,46 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8587,7 +8625,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8595,10 +8633,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8615,25 +8653,25 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8646,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -8658,13 +8696,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8682,7 +8720,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8697,7 +8735,7 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8706,7 +8744,7 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8714,10 +8752,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8728,10 +8766,10 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>79</v>
@@ -8740,15 +8778,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8761,49 +8801,49 @@
         <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8812,7 +8852,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8861,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8829,14 +8869,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8846,7 +8886,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
@@ -8855,16 +8895,20 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8876,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>79</v>
@@ -8912,7 +8956,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8927,7 +8971,7 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8936,7 +8980,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8944,24 +8988,24 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
@@ -8970,17 +9014,15 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8993,7 +9035,7 @@
         <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>79</v>
@@ -9029,13 +9071,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -9044,7 +9086,7 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -9053,7 +9095,7 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9061,14 +9103,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9087,13 +9129,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9108,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9120,13 +9162,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9144,7 +9186,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9159,7 +9201,7 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -9168,7 +9210,7 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9176,14 +9218,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9193,7 +9235,7 @@
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
@@ -9202,15 +9244,17 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9223,7 +9267,7 @@
         <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>79</v>
@@ -9259,7 +9303,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9274,7 +9318,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -9283,7 +9327,7 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9291,14 +9335,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9308,7 +9352,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
@@ -9317,17 +9361,15 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9340,7 +9382,7 @@
         <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>79</v>
@@ -9352,13 +9394,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9376,7 +9418,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9391,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
@@ -9400,7 +9442,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9408,14 +9450,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9425,7 +9467,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>79</v>
@@ -9434,18 +9476,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9457,7 +9497,7 @@
         <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>79</v>
@@ -9493,7 +9533,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9508,7 +9548,7 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>332</v>
+        <v>495</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
@@ -9517,7 +9557,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9525,10 +9565,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9548,21 +9588,21 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9586,13 +9626,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9610,7 +9650,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9625,16 +9665,16 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9642,10 +9682,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9665,22 +9705,20 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>509</v>
+        <v>257</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9693,7 +9731,7 @@
         <v>79</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>79</v>
@@ -9729,7 +9767,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9744,16 +9782,16 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>514</v>
+        <v>344</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9761,10 +9799,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9775,7 +9813,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9787,19 +9825,17 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>229</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9824,13 +9860,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9848,13 +9884,13 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
@@ -9863,16 +9899,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9880,10 +9916,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9894,7 +9930,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9906,19 +9942,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9967,31 +10003,31 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>530</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9999,10 +10035,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10013,7 +10049,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10025,16 +10061,20 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>196</v>
+        <v>529</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>197</v>
+        <v>530</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10082,31 +10122,31 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>199</v>
+        <v>528</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>200</v>
+        <v>534</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10114,14 +10154,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10140,18 +10180,20 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>537</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>202</v>
+        <v>538</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>203</v>
+        <v>539</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10199,7 +10241,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>205</v>
+        <v>536</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10211,13 +10253,13 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>542</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>200</v>
+        <v>543</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10231,46 +10273,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>209</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10318,22 +10356,22 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
@@ -10350,14 +10388,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10376,18 +10414,18 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>540</v>
+        <v>214</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10411,13 +10449,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10435,7 +10473,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>539</v>
+        <v>217</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10447,19 +10485,19 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>545</v>
+        <v>212</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10467,33 +10505,33 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>548</v>
@@ -10501,9 +10539,11 @@
       <c r="M70" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>550</v>
+        <v>196</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10552,31 +10592,31 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10584,10 +10624,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10610,19 +10650,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>229</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10647,13 +10685,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10671,7 +10709,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10686,16 +10724,16 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>340</v>
+        <v>557</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10703,10 +10741,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10729,17 +10767,17 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10788,7 +10826,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10803,16 +10841,16 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>412</v>
+        <v>287</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10820,10 +10858,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10834,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10846,17 +10884,19 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>347</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>381</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>564</v>
+        <v>351</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10881,13 +10921,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10905,13 +10945,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10920,16 +10960,16 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10937,10 +10977,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10963,17 +11003,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11022,7 +11062,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11031,22 +11071,22 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11054,10 +11094,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11080,16 +11120,18 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11113,13 +11155,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11137,7 +11179,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11152,16 +11194,16 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>578</v>
+        <v>163</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11169,10 +11211,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11183,7 +11225,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11195,17 +11237,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>525</v>
+        <v>264</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N76" t="s" s="2">
         <v>582</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>583</v>
       </c>
@@ -11256,31 +11296,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>585</v>
+        <v>212</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11288,10 +11328,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11314,13 +11354,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>197</v>
+        <v>588</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>198</v>
+        <v>589</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11371,7 +11411,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>199</v>
+        <v>587</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11383,13 +11423,13 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>200</v>
+        <v>590</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11403,14 +11443,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11429,18 +11469,20 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>537</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>202</v>
+        <v>592</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>203</v>
+        <v>593</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11488,7 +11530,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>205</v>
+        <v>591</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11500,13 +11542,13 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>200</v>
+        <v>596</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11520,46 +11562,42 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>536</v>
+        <v>209</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11607,22 +11645,22 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
@@ -11639,24 +11677,24 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>79</v>
@@ -11665,20 +11703,18 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>590</v>
+        <v>214</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11702,11 +11738,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11724,31 +11762,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>589</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>595</v>
+        <v>212</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11756,45 +11794,45 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>601</v>
+        <v>195</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>602</v>
+        <v>196</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11843,31 +11881,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>603</v>
+        <v>130</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11875,24 +11913,24 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>79</v>
@@ -11901,18 +11939,20 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>608</v>
+        <v>229</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11936,13 +11976,11 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -11960,13 +11998,13 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -11975,16 +12013,16 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>200</v>
+        <v>608</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11992,10 +12030,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12015,22 +12053,22 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12079,7 +12117,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12094,16 +12132,16 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12111,14 +12149,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12131,13 +12169,13 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>621</v>
@@ -12148,9 +12186,7 @@
       <c r="N84" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="O84" t="s" s="2">
-        <v>624</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12198,7 +12234,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12213,16 +12249,16 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12253,19 +12289,23 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>197</v>
+        <v>627</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12313,7 +12353,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>199</v>
+        <v>626</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12325,13 +12365,13 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>200</v>
+        <v>585</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12345,14 +12385,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12365,24 +12405,26 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>537</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>202</v>
+        <v>633</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12430,7 +12472,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>205</v>
+        <v>632</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12442,13 +12484,13 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>200</v>
+        <v>637</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12462,46 +12504,42 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>536</v>
+        <v>209</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12549,22 +12587,22 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
@@ -12581,21 +12619,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12604,19 +12642,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>630</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>631</v>
+        <v>214</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>632</v>
+        <v>215</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>633</v>
+        <v>195</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12666,31 +12704,31 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>629</v>
+        <v>217</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>634</v>
+        <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12698,42 +12736,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12757,13 +12799,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12781,38 +12823,270 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>635</v>
+        <v>550</v>
       </c>
       <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH89" t="s" s="2">
+      <c r="G90" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK89" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO89" t="s" s="2">
+      <c r="AK90" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO89">
+  <autoFilter ref="A1:AO91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12822,7 +13096,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -553,10 +553,10 @@
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
   </si>
   <si>
-    <t>Patient.extension:clinical-sex</t>
-  </si>
-  <si>
-    <t>clinical-sex</t>
+    <t>Patient.extension:spfcu</t>
+  </si>
+  <si>
+    <t>spfcu</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -553,10 +553,10 @@
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
   </si>
   <si>
-    <t>Patient.extension:spfcu</t>
-  </si>
-  <si>
-    <t>spfcu</t>
+    <t>Patient.extension:spcu</t>
+  </si>
+  <si>
+    <t>spcu</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the patient needs an interpreter</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the patient needs an interpreter</t>
   </si>
   <si>
     <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
@@ -1929,6 +1929,83 @@
   </si>
   <si>
     <t>PID-15, LAN-2</t>
+  </si>
+  <si>
+    <t>Patient.communication.language.id</t>
+  </si>
+  <si>
+    <t>Patient.communication.language.extension</t>
+  </si>
+  <si>
+    <t>Patient.communication.language.extension:us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t>us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
+</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the individual needs an interpreter</t>
+  </si>
+  <si>
+    <t>This individual needs an interpreter to communicate healthcare information in the language specified in the extension's context.</t>
+  </si>
+  <si>
+    <t>The individual does not speak the default language of the organization, and hence requires an interpreter.</t>
+  </si>
+  <si>
+    <t>Patient.communication.language.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Patient.communication.language.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Patient.communication.preferred</t>
@@ -2393,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2402,9 +2479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.24609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="67.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2412,7 +2489,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -12086,20 +12163,16 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>615</v>
+        <v>213</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12147,7 +12220,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>614</v>
+        <v>215</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12159,19 +12232,19 @@
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>619</v>
+        <v>216</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>620</v>
+        <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>621</v>
+        <v>83</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12179,14 +12252,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>623</v>
+        <v>196</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12205,16 +12278,16 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>624</v>
+        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>625</v>
+        <v>218</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>626</v>
+        <v>219</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>627</v>
+        <v>199</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12252,19 +12325,19 @@
         <v>83</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>622</v>
+        <v>221</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12276,19 +12349,19 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>628</v>
+        <v>216</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>629</v>
+        <v>83</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12296,12 +12369,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12319,23 +12394,21 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>268</v>
+        <v>618</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12383,25 +12456,25 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>630</v>
+        <v>221</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>635</v>
+        <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>83</v>
@@ -12415,10 +12488,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12435,25 +12508,25 @@
         <v>83</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12502,7 +12575,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12517,16 +12590,16 @@
         <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>83</v>
+        <v>630</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12534,10 +12607,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12557,19 +12630,23 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>212</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>213</v>
+        <v>632</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12617,7 +12694,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>215</v>
+        <v>636</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12629,10 +12706,10 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>216</v>
+        <v>637</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>83</v>
@@ -12641,7 +12718,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>83</v>
+        <v>638</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12649,21 +12726,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -12675,18 +12752,20 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>218</v>
+        <v>640</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>219</v>
+        <v>641</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12734,31 +12813,31 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>221</v>
+        <v>639</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>216</v>
+        <v>644</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>83</v>
+        <v>645</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12766,14 +12845,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12786,26 +12865,24 @@
         <v>83</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>649</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>553</v>
+        <v>651</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12853,7 +12930,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>554</v>
+        <v>647</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12865,19 +12942,19 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>134</v>
+        <v>653</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>83</v>
+        <v>654</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -12885,10 +12962,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12896,7 +12973,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>91</v>
@@ -12911,18 +12988,20 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>646</v>
+        <v>268</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -12970,10 +13049,10 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>91</v>
@@ -12985,16 +13064,16 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>207</v>
+        <v>589</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>216</v>
+        <v>660</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>650</v>
+        <v>83</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13002,10 +13081,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13013,31 +13092,35 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>111</v>
+        <v>541</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13061,13 +13144,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>653</v>
+        <v>83</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>654</v>
+        <v>83</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13085,13 +13168,13 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
@@ -13100,7 +13183,7 @@
         <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>216</v>
@@ -13115,8 +13198,591 @@
         <v>83</v>
       </c>
     </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO91">
+  <autoFilter ref="A1:AO96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13126,7 +13792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -616,23 +616,23 @@
     <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
   </si>
   <si>
-    <t>Patient.extension:interpreterRequired</t>
-  </si>
-  <si>
-    <t>interpreterRequired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-interpreterRequired}
+    <t>Patient.extension:us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t>us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the patient needs an interpreter</t>
-  </si>
-  <si>
-    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
-  </si>
-  <si>
-    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the individual needs an interpreter</t>
+  </si>
+  <si>
+    <t>This individual needs an interpreter to communicate healthcare information.</t>
+  </si>
+  <si>
+    <t>The individual does not speak the default language of the organization, and hence requires an interpreter.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1929,83 +1929,6 @@
   </si>
   <si>
     <t>PID-15, LAN-2</t>
-  </si>
-  <si>
-    <t>Patient.communication.language.id</t>
-  </si>
-  <si>
-    <t>Patient.communication.language.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication.language.extension:us-core-interpreter-required</t>
-  </si>
-  <si>
-    <t>us-core-interpreter-required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
-</t>
-  </si>
-  <si>
-    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the individual needs an interpreter</t>
-  </si>
-  <si>
-    <t>This individual needs an interpreter to communicate healthcare information in the language specified in the extension's context.</t>
-  </si>
-  <si>
-    <t>The individual does not speak the default language of the organization, and hence requires an interpreter.</t>
-  </si>
-  <si>
-    <t>Patient.communication.language.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Patient.communication.language.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Patient.communication.preferred</t>
@@ -2470,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2479,8 +2402,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4612,7 +4535,7 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>142</v>
@@ -12163,16 +12086,20 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>213</v>
+        <v>615</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12220,7 +12147,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>215</v>
+        <v>614</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12232,19 +12159,19 @@
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>216</v>
+        <v>619</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>83</v>
+        <v>621</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12252,14 +12179,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>196</v>
+        <v>623</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12278,16 +12205,16 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>136</v>
+        <v>624</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>218</v>
+        <v>625</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>219</v>
+        <v>626</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>199</v>
+        <v>627</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12325,19 +12252,19 @@
         <v>83</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>221</v>
+        <v>622</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12349,19 +12276,19 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>83</v>
+        <v>629</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12369,14 +12296,12 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12394,21 +12319,23 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>618</v>
+        <v>268</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12456,25 +12383,25 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>630</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>83</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>83</v>
+        <v>635</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>83</v>
@@ -12488,10 +12415,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12508,25 +12435,25 @@
         <v>83</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>623</v>
+        <v>541</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12575,7 +12502,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12590,16 +12517,16 @@
         <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>630</v>
+        <v>83</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12607,10 +12534,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12630,23 +12557,19 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>212</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>632</v>
+        <v>213</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12694,7 +12617,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>636</v>
+        <v>215</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12706,10 +12629,10 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>637</v>
+        <v>216</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>83</v>
@@ -12718,7 +12641,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>638</v>
+        <v>83</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12726,21 +12649,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -12752,20 +12675,18 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>640</v>
+        <v>218</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>641</v>
+        <v>219</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12813,31 +12734,31 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>639</v>
+        <v>221</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>644</v>
+        <v>216</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>645</v>
+        <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>646</v>
+        <v>83</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12845,14 +12766,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>648</v>
+        <v>551</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12865,24 +12786,26 @@
         <v>83</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>649</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>650</v>
+        <v>552</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>651</v>
+        <v>553</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12930,7 +12853,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>647</v>
+        <v>554</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12942,19 +12865,19 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>653</v>
+        <v>134</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>654</v>
+        <v>83</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -12962,10 +12885,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12973,7 +12896,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>91</v>
@@ -12988,20 +12911,18 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>268</v>
+        <v>646</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13049,10 +12970,10 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>91</v>
@@ -13064,16 +12985,16 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>589</v>
+        <v>207</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>660</v>
+        <v>216</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>83</v>
+        <v>650</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13081,10 +13002,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13092,35 +13013,31 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>541</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13144,13 +13061,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>83</v>
+        <v>654</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13168,13 +13085,13 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
@@ -13183,7 +13100,7 @@
         <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>216</v>
@@ -13198,591 +13115,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO96">
+  <autoFilter ref="A1:AO91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13792,7 +13126,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the individual needs an interpreter</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the patient needs an interpreter</t>
   </si>
   <si>
     <t>This individual needs an interpreter to communicate healthcare information.</t>

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -1410,7 +1410,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The US Core Patient Profile inherits from the FHIR [Patient](https://hl7.org/fhir/R4/patient.html) resource; refer to it for scope and usage definitions. This profile meets the requirements of the U.S. Core Data for Interoperability (USCDI)  *Patient Demographics/Information* Data Class. It sets minimum expectations for the Patient resource to record, search, and fetch basic demographics and other administrative information about an individual patient. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
+    <t>The US Core Patient Profile inherits from the FHIR [Patient](https://hl7.org/fhir/R4/patient.html) resource; refer to it for scope and usage definitions. This profile meets the requirements of the [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isp/united-states-core-data-interoperability-uscdi) *Patient Demographics/Information* Data Class. It sets minimum expectations for the Patient resource to record, search, and fetch basic demographics and other administrative information about an individual patient. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -565,10 +565,10 @@
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
   </si>
   <si>
-    <t>Patient.extension:spcu</t>
-  </si>
-  <si>
-    <t>spcu</t>
+    <t>Patient.extension:sexParameterForClinicalUse</t>
+  </si>
+  <si>
+    <t>sexParameterForClinicalUse</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}
@@ -616,10 +616,10 @@
     <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
   </si>
   <si>
-    <t>Patient.extension:us-core-interpreter-required</t>
-  </si>
-  <si>
-    <t>us-core-interpreter-required</t>
+    <t>Patient.extension:interpreterRequired</t>
+  </si>
+  <si>
+    <t>interpreterRequired</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
@@ -2402,9 +2402,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
